--- a/Data/Boron/TJ_d11B.xlsx
+++ b/Data/Boron/TJ_d11B.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="304">
   <si>
     <t>sample</t>
   </si>
@@ -419,6 +419,99 @@
   </si>
   <si>
     <t>°C</t>
+  </si>
+  <si>
+    <t>LAV007</t>
+  </si>
+  <si>
+    <t>LAV003</t>
+  </si>
+  <si>
+    <t>LAV002</t>
+  </si>
+  <si>
+    <t>LAV012</t>
+  </si>
+  <si>
+    <t>LAV011</t>
+  </si>
+  <si>
+    <t>LAV010</t>
+  </si>
+  <si>
+    <t>LAV014</t>
+  </si>
+  <si>
+    <t>LAV016</t>
+  </si>
+  <si>
+    <t>LAV019</t>
+  </si>
+  <si>
+    <t>LAV020</t>
+  </si>
+  <si>
+    <t>LAV037</t>
+  </si>
+  <si>
+    <t>LAV021</t>
+  </si>
+  <si>
+    <t>LAV029</t>
+  </si>
+  <si>
+    <t>LAV030</t>
+  </si>
+  <si>
+    <t>LAV031</t>
+  </si>
+  <si>
+    <t>LAV038</t>
+  </si>
+  <si>
+    <t>LAV022</t>
+  </si>
+  <si>
+    <t>LAV025</t>
+  </si>
+  <si>
+    <t>LAV023</t>
+  </si>
+  <si>
+    <t>LAV039</t>
+  </si>
+  <si>
+    <t>LAV041</t>
+  </si>
+  <si>
+    <t>LAV040</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>d11B</t>
+  </si>
+  <si>
+    <t>d11B_uncertainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>‰</t>
   </si>
   <si>
     <t>LAV007</t>
@@ -880,7 +973,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -911,11 +1004,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -940,6 +1037,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2370,56 +2471,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" customWidth="true"/>
-    <col min="2" max="2" width="5.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="7.1796875" customWidth="true"/>
+    <col min="2" max="2" width="5.64453125" customWidth="true"/>
+    <col min="3" max="3" width="11.64453125" customWidth="true"/>
+    <col min="5" max="5" width="13.64453125" customWidth="true"/>
+    <col min="4" max="4" width="11.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="0" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="0" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" s="0" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="B3" s="0">
         <v>12.190000000000001</v>
       </c>
       <c r="C3" s="0">
-        <v>201.52877606845385</v>
+        <v>201.51597777778554</v>
       </c>
       <c r="D3" s="0">
         <v>10.01219720849093</v>
@@ -2430,13 +2531,13 @@
     </row>
     <row r="4" x14ac:dyDescent="0.3">
       <c r="A4" s="0" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="B4" s="0">
         <v>13.59</v>
       </c>
       <c r="C4" s="0">
-        <v>201.48713504281281</v>
+        <v>201.47267350428129</v>
       </c>
       <c r="D4" s="0">
         <v>10.24097362914215</v>
@@ -2447,13 +2548,13 @@
     </row>
     <row r="5" x14ac:dyDescent="0.3">
       <c r="A5" s="0" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="B5" s="0">
         <v>14.59</v>
       </c>
       <c r="C5" s="0">
-        <v>201.45739145306922</v>
+        <v>201.45319851117404</v>
       </c>
       <c r="D5" s="0">
         <v>9.9763254692479073</v>
@@ -2464,13 +2565,13 @@
     </row>
     <row r="6" x14ac:dyDescent="0.3">
       <c r="A6" s="0" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="B6" s="0">
         <v>15.02</v>
       </c>
       <c r="C6" s="0">
-        <v>201.44482068383846</v>
+        <v>201.44486407500088</v>
       </c>
       <c r="D6" s="0">
         <v>10.878138239162579</v>
@@ -2481,13 +2582,13 @@
     </row>
     <row r="7" x14ac:dyDescent="0.3">
       <c r="A7" s="0" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="B7" s="0">
         <v>15.289999999999999</v>
       </c>
       <c r="C7" s="0">
-        <v>201.43974606845384</v>
+        <v>201.4396940171018</v>
       </c>
       <c r="D7" s="0">
         <v>9.8872299810538102</v>
@@ -2498,13 +2599,13 @@
     </row>
     <row r="8" x14ac:dyDescent="0.3">
       <c r="A8" s="0" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="B8" s="0">
         <v>15.640000000000001</v>
       </c>
       <c r="C8" s="0">
-        <v>201.43316786332562</v>
+        <v>201.43305299146076</v>
       </c>
       <c r="D8" s="0">
         <v>10.708374995046363</v>
@@ -2515,13 +2616,13 @@
     </row>
     <row r="9" x14ac:dyDescent="0.3">
       <c r="A9" s="0" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="B9" s="0">
         <v>15.940000000000001</v>
       </c>
       <c r="C9" s="0">
-        <v>201.42752940178718</v>
+        <v>201.42736068376846</v>
       </c>
       <c r="D9" s="0">
         <v>11.039549024903264</v>
@@ -2532,13 +2633,13 @@
     </row>
     <row r="10" x14ac:dyDescent="0.3">
       <c r="A10" s="0" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="B10" s="0">
         <v>16.190000000000001</v>
       </c>
       <c r="C10" s="0">
-        <v>201.42283068383844</v>
+        <v>201.42261709402487</v>
       </c>
       <c r="D10" s="0">
         <v>10.762272249201416</v>
@@ -2549,13 +2650,13 @@
     </row>
     <row r="11" x14ac:dyDescent="0.3">
       <c r="A11" s="0" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="B11" s="0">
         <v>16.539999999999999</v>
       </c>
       <c r="C11" s="0">
-        <v>201.41625247871025</v>
+        <v>201.41597606838383</v>
       </c>
       <c r="D11" s="0">
         <v>10.835984879209818</v>
@@ -2566,13 +2667,13 @@
     </row>
     <row r="12" x14ac:dyDescent="0.3">
       <c r="A12" s="0" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="B12" s="0">
         <v>16.890000000000001</v>
       </c>
       <c r="C12" s="0">
-        <v>201.40967427358206</v>
+        <v>201.40933504274281</v>
       </c>
       <c r="D12" s="0">
         <v>10.459512485805641</v>
@@ -2583,13 +2684,13 @@
     </row>
     <row r="13" x14ac:dyDescent="0.3">
       <c r="A13" s="0" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="B13" s="0">
         <v>17.120000000000001</v>
       </c>
       <c r="C13" s="0">
-        <v>201.40535145306922</v>
+        <v>201.40497094017871</v>
       </c>
       <c r="D13" s="0">
         <v>10.384159531398856</v>
@@ -2600,13 +2701,13 @@
     </row>
     <row r="14" x14ac:dyDescent="0.3">
       <c r="A14" s="0" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B14" s="0">
         <v>17.490000000000002</v>
       </c>
       <c r="C14" s="0">
-        <v>201.39839735050512</v>
+        <v>201.39795042735821</v>
       </c>
       <c r="D14" s="0">
         <v>9.9436806178566286</v>
@@ -2617,13 +2718,13 @@
     </row>
     <row r="15" x14ac:dyDescent="0.3">
       <c r="A15" s="0" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="B15" s="0">
         <v>18.210000000000001</v>
       </c>
       <c r="C15" s="0">
-        <v>201.38486504281281</v>
+        <v>201.38433722222999</v>
       </c>
       <c r="D15" s="0">
         <v>9.9960501404771449</v>
@@ -2634,13 +2735,13 @@
     </row>
     <row r="16" x14ac:dyDescent="0.3">
       <c r="A16" s="0" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B16" s="0">
         <v>18.439999999999998</v>
       </c>
       <c r="C16" s="0">
-        <v>201.38054222229999</v>
+        <v>201.38008222222999</v>
       </c>
       <c r="D16" s="0">
         <v>8.9507559822158029</v>
@@ -2651,13 +2752,13 @@
     </row>
     <row r="17" x14ac:dyDescent="0.3">
       <c r="A17" s="0" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="B17" s="0">
         <v>18.84</v>
       </c>
       <c r="C17" s="0">
-        <v>201.37302427358205</v>
+        <v>201.37268222223</v>
       </c>
       <c r="D17" s="0">
         <v>9.2453681244467258</v>
@@ -2668,13 +2769,13 @@
     </row>
     <row r="18" x14ac:dyDescent="0.3">
       <c r="A18" s="0" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="B18" s="0">
         <v>20.140000000000001</v>
       </c>
       <c r="C18" s="0">
-        <v>201.34857658127436</v>
+        <v>201.34859722222998</v>
       </c>
       <c r="D18" s="0">
         <v>8.1044394762742993</v>
@@ -2685,13 +2786,13 @@
     </row>
     <row r="19" x14ac:dyDescent="0.3">
       <c r="A19" s="0" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="B19" s="0">
         <v>20.640000000000001</v>
       </c>
       <c r="C19" s="0">
-        <v>201.33912786332564</v>
+        <v>201.33922222223001</v>
       </c>
       <c r="D19" s="0">
         <v>9.7067607134899703</v>
@@ -2702,13 +2803,13 @@
     </row>
     <row r="20" x14ac:dyDescent="0.3">
       <c r="A20" s="0" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B20" s="0">
         <v>21.120000000000001</v>
       </c>
       <c r="C20" s="0">
-        <v>201.33005709409485</v>
+        <v>201.33022222222999</v>
       </c>
       <c r="D20" s="0">
         <v>8.4942813608424057</v>
@@ -2719,13 +2820,13 @@
     </row>
     <row r="21" x14ac:dyDescent="0.3">
       <c r="A21" s="0" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="B21" s="0">
         <v>21.140000000000001</v>
       </c>
       <c r="C21" s="0">
-        <v>201.32967914537693</v>
+        <v>201.32984722223</v>
       </c>
       <c r="D21" s="0">
         <v>6.9697748282639225</v>
@@ -2736,13 +2837,13 @@
     </row>
     <row r="22" x14ac:dyDescent="0.3">
       <c r="A22" s="0" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="B22" s="0">
         <v>23.539999999999999</v>
       </c>
       <c r="C22" s="0">
-        <v>201.28432529922307</v>
+        <v>201.28481196581973</v>
       </c>
       <c r="D22" s="0">
         <v>7.1065964233074652</v>
@@ -2753,13 +2854,13 @@
     </row>
     <row r="23" x14ac:dyDescent="0.3">
       <c r="A23" s="0" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="B23" s="0">
         <v>23.890000000000001</v>
       </c>
       <c r="C23" s="0">
-        <v>201.27771119665897</v>
+        <v>201.27808119658897</v>
       </c>
       <c r="D23" s="0">
         <v>9.3714561608127696</v>
@@ -2770,13 +2871,13 @@
     </row>
     <row r="24" x14ac:dyDescent="0.3">
       <c r="A24" s="0" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="B24" s="0">
         <v>24.189999999999998</v>
       </c>
       <c r="C24" s="0">
-        <v>201.27204196588974</v>
+        <v>201.27231196581974</v>
       </c>
       <c r="D24" s="0">
         <v>9.5039834385630684</v>
